--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexs\Sync\RUG_22_23\Neural Networks\Repositories\NN-A3-Learning_by_gradient_descent\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D91BF299-7759-4435-B553-B416A88A23BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFD94B6D-AC8A-47B4-9FA7-E07187F2EE2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5240" yWindow="2650" windowWidth="19820" windowHeight="15900" xr2:uid="{196EB8B6-44D7-4730-9416-B8DBB69EB0C6}"/>
+    <workbookView xWindow="5240" yWindow="2650" windowWidth="13960" windowHeight="8150" xr2:uid="{196EB8B6-44D7-4730-9416-B8DBB69EB0C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>K</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>Ext. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ext. 2 </t>
   </si>
 </sst>
 </file>
@@ -421,15 +424,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AED4FD0-10D4-4D97-A223-772D46EFE88F}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -455,7 +458,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -469,19 +472,23 @@
         <v>2</v>
       </c>
       <c r="E2" s="1">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="F2" s="1">
         <v>0.05</v>
       </c>
       <c r="G2" s="1">
-        <v>2.4E-2</v>
+        <v>0.01</v>
       </c>
       <c r="H2" s="1">
-        <v>0.19600000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="J2">
+        <f>H2/G2</f>
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -508,7 +515,7 @@
         <v>0.39100000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
       <c r="B4" s="1">
         <v>50</v>
@@ -533,7 +540,7 @@
         <v>0.192</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="1">
         <v>100</v>
@@ -558,7 +565,7 @@
         <v>0.17899999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="1">
         <v>200</v>
@@ -583,7 +590,7 @@
         <v>0.14299999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
       <c r="B7" s="1">
         <v>500</v>
@@ -608,7 +615,7 @@
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
       <c r="B8" s="1">
         <v>1000</v>
@@ -633,7 +640,7 @@
         <v>0.108</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" s="1">
         <v>2000</v>
@@ -657,8 +664,10 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="1"/>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -667,7 +676,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -677,7 +686,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -687,7 +696,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -697,7 +706,7 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -707,7 +716,7 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -717,7 +726,7 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
